--- a/lymloook.xlsx
+++ b/lymloook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28320" windowHeight="9495"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -287,12 +287,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,9 +302,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,24 +390,33 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,14 +428,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -362,33 +436,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,57 +452,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -461,187 +468,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,6 +659,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -674,37 +735,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,30 +754,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -757,153 +764,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1256,8 +1269,8 @@
   <sheetPr/>
   <dimension ref="A2:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1276,7 +1289,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1295,7 +1308,6 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4"/>
       <c r="F4" t="s">
         <v>5</v>
       </c>
@@ -1321,7 +1333,7 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1377,7 +1389,7 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1439,7 +1451,7 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1495,7 +1507,7 @@
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1545,7 +1557,7 @@
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1595,7 +1607,7 @@
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1687,7 +1699,7 @@
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1743,7 +1755,7 @@
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1799,12 +1811,12 @@
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1855,7 +1867,7 @@
       </c>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1911,7 +1923,7 @@
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1961,7 +1973,7 @@
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" t="s">
+      <c r="A67" s="1" t="s">
         <v>83</v>
       </c>
     </row>
